--- a/src/informesGenerados/ResumenMINCOM.xlsx
+++ b/src/informesGenerados/ResumenMINCOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Tipo</t>
   </si>
@@ -101,328 +101,232 @@
     <t>Delito vs PExt</t>
   </si>
   <si>
-    <t>2020-01-02</t>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO. Ave.Finlay. Nuevitas</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de FO. Batey de Junco hacia La Carlota</t>
+  </si>
+  <si>
+    <t>Avería PExt</t>
+  </si>
+  <si>
+    <t>DTGT</t>
+  </si>
+  <si>
+    <t>Parido poste de hormigón de 7.5 mts, por accidente de tránsito. Carretera Principal Argeo Martínez</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>DTCA</t>
+  </si>
+  <si>
+    <t>Partido Microteléfono a una EP. Tienda de víveres del Batey Eduviges Sanguily</t>
+  </si>
+  <si>
+    <t>Incendio Ext.</t>
+  </si>
+  <si>
+    <t>DTPR</t>
+  </si>
+  <si>
+    <t>Moto incendiada por corto circuito, durante su reparación. Avenida Borrego, entre Calle R Formell y Calle B</t>
+  </si>
+  <si>
+    <t>DTOE</t>
+  </si>
+  <si>
+    <t>Sustracción del microteléfono a una EP. Calle 300</t>
+  </si>
+  <si>
+    <t>Acc. Tránsito</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito no imputable a ETECSA, sin lesionados. Calle Infanta y Salvador Allende</t>
+  </si>
+  <si>
+    <t>Robo</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>Intento de robo Minipunto. Rpto. Fructuoso Rodríguez</t>
+  </si>
+  <si>
+    <t>Desprendida de la pared y abondonada en el suelo una EP. Rpto. Biplanta- Avenida Salva, entre calle 17 y calle 17 B</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico. UBPC Turquino</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte de cable telefónico de 200 pares. Km 3/2. Punta Brava</t>
+  </si>
+  <si>
+    <t>DTSR</t>
+  </si>
+  <si>
+    <t>Partido cable de 50 pares, por accidente del tránsito. Calle Rafael de Cardenas, entre 3ra y 4ta</t>
+  </si>
+  <si>
+    <t>DTES</t>
+  </si>
+  <si>
+    <t>Sustracción de lámparas LED. Avenidad Rotaria,  entre Ciruela y Enlace</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>Partido un poste de madera de 7.5 mts y dos cables telefónicos, por accidente de tránsito. Calle Augusto Arango</t>
+  </si>
+  <si>
+    <t>DVLS</t>
+  </si>
+  <si>
+    <t>Sustracción de un televisor. Avenida Los Pinos y 3ra. Sevillano</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>DECA</t>
+  </si>
+  <si>
+    <t>Accidente del tránsito imputable a ETECSA, sin lesionados. Entrada Tunel de la Habana</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>Golpeado tubo soterrado, por labores de constructivas de la empresa ARCOS. Carretera Las Américas</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito sin lesionados, imputable a ETECSA. Barrio Comunidad Militar</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
   </si>
   <si>
     <t>DTGR</t>
   </si>
   <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de bajante telefónico. Calle 16 Rosa La Bayamesa, entre 33 y 39</t>
-  </si>
-  <si>
-    <t>Hurto</t>
-  </si>
-  <si>
-    <t>2020-01-03</t>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor. Km 2. Carretera Bayamo</t>
+  </si>
+  <si>
+    <t>Intento de robo en minipunto. Calle 30, entre Carrillo y Saez</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>Partido poste madera de 9.00 mts y cable de FO, por accidente de tránsito. Localidad Quemado de Güines</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>Partido poste de madera de 9.00 mts y FO. Entronque del batey 6 de Agosto</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito sin lesionados, imputable a ETECSA. Calle Fabrica. No. 54,  entre Aspuru y Línea del FC</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>Partido cable multipar de 100 pares, por accidente de tránsito. Carretera a Esmeralda</t>
+  </si>
+  <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>Interno con un machete causa daño multiples a una EP. Carretera Manatí.  Centro Penitenciario La Estrella</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico. Calle José Martí, entre A y B</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
   </si>
   <si>
     <t>DTMY</t>
   </si>
   <si>
-    <t>Sustracción de muebles sanitarios. Calle 116,  entre 73 y 77</t>
-  </si>
-  <si>
-    <t>Avería PExt</t>
-  </si>
-  <si>
-    <t>DTSR</t>
-  </si>
-  <si>
-    <t>Partido poste de concreto de 7.5 mts, por accidente de tránsito. Calle Otero  y Final</t>
-  </si>
-  <si>
-    <t>Acc. Tránsito</t>
+    <t>Afectación a la planta exterior por corte de cable coaxial. Carretera a Cayajabos, entre Repetidor 3 y Repetidor 4</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de tensor. Carretera a Sábalo</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>Partidos 2 postes de madera de 7.00 mts, por accidente de tránsito. Calle Retiro, entre Méndez Capote y Acueducto</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>DTNO</t>
+  </si>
+  <si>
+    <t>Accidente de transito con lesionados, no imputable a ETECSA. Entre Calle Zapata y Paseo</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico. Camino a la localidad La Pimienta</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico. Carretera de Baconao KM 1 1/2</t>
   </si>
   <si>
     <t>DVLH</t>
   </si>
   <si>
-    <t>Accidente de tránsito con lesionados, no imputable a ETECSA. Calle Otero, entre Freire y Final</t>
-  </si>
-  <si>
-    <t>Robo</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
-    <t>DTAR</t>
-  </si>
-  <si>
-    <t>Sustracción de cerca perimetral en Gabinete Integral. Carretera Artemisa Cayajabos KM 11</t>
-  </si>
-  <si>
-    <t>Partido cable de 10 pares, por accidente de tránsito. Entrada de la localidad de Cauto Embarcadero</t>
-  </si>
-  <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>DTGT</t>
-  </si>
-  <si>
-    <t>Sustracción de microteléfono a una EP. Calle 13 Norte, entre Beneficencia y San lino</t>
-  </si>
-  <si>
-    <t>DTPR</t>
-  </si>
-  <si>
-    <t>Partida la FO, por accidente de tránsito.  Entronque de Pilotos</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de cable telefónico. Carretera San Luis- Dos Caminos</t>
-  </si>
-  <si>
-    <t>2020-01-07</t>
-  </si>
-  <si>
-    <t>DTLT</t>
-  </si>
-  <si>
-    <t>Intento de robo de la moto Vespa Piaggio, con chapa B17420. Calle Angel Guardia, entre Francisco Varona y Adolfo Villamar</t>
-  </si>
-  <si>
-    <t>Incendio Ext.</t>
-  </si>
-  <si>
-    <t>Quemado cable multipar de 50 pares y 5 bajantes. Edificio A-28. Distrito José Martí</t>
-  </si>
-  <si>
-    <t>Otros Delitos</t>
-  </si>
-  <si>
-    <t>2020-01-08</t>
-  </si>
-  <si>
-    <t>Pérdida de piezas en desuso en el Taller de Transporte. Avenida 47, No . 8213, entre 82 y 86</t>
-  </si>
-  <si>
-    <t>2020-01-09</t>
-  </si>
-  <si>
-    <t>Vandalizada 2 EP. Avenida 74, entre 35 y 37</t>
-  </si>
-  <si>
-    <t>DTHO</t>
-  </si>
-  <si>
-    <t>Partido poste de madera de 9.00 mts, por vehículo de tracción animal. Avenida 26 de Julio, frente al policlínico de Cueto</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>DTSS</t>
-  </si>
-  <si>
-    <t>Intento de soborno al Director Territorial (propuesta de compra de los relay de la ATZ 64). Calee Bartolomé Masó. No . 167,  entre Coronel Legón y Mirto</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>Sustracción de 2 lámparas led de exteriores. Localidad Manacas</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
-  </si>
-  <si>
-    <t>DTCM</t>
-  </si>
-  <si>
-    <t>Ocupación ilegal de local de ETECSA. Calle Ignacio Sánchez, entre San Ramón y Santa Rosa</t>
-  </si>
-  <si>
-    <t>Partidos 4 postes de 9.00 mts (1 de madera y 3 de hormigón), por caída de árbol. Avenida Demetrio Presilla, entrada Villa Blanca</t>
-  </si>
-  <si>
-    <t>2020-01-12</t>
-  </si>
-  <si>
-    <t>Partido microteléfono de una EP. Calle 6ta, Doble Vía. Comercial Vigía Sur de Santa Clara</t>
-  </si>
-  <si>
-    <t>2020-01-14</t>
-  </si>
-  <si>
-    <t>Partido poste de hormigón de 7.5 mts, por accidente de tránsito. Calle 8, entre 11 y 13</t>
-  </si>
-  <si>
-    <t>2020-01-15</t>
-  </si>
-  <si>
-    <t>DTES</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito sin lesionados, no imputable a ETECSA. Avenida Mártires, entre Freyre y Final</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>Sustracción de microteléfono a una EP. Carretera Central. Mangos de Baraguá</t>
-  </si>
-  <si>
-    <t>2020-01-17</t>
-  </si>
-  <si>
-    <t>DTCF</t>
-  </si>
-  <si>
-    <t>Partido poste de madera de 9.00 mts, por accidente de tránsito. Carretera a Mal Tiempo, entre Aguilera y Estrada Palma</t>
-  </si>
-  <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
-    <t>Fracturado cristal del minipunto en intento de robo. Calzada, entre Palma y Estero</t>
-  </si>
-  <si>
-    <t>Partido poste de hormigon de 7.5 mts, por accidente de transito. Calle Ruben Dario, No. 5. Taguasco</t>
-  </si>
-  <si>
-    <t>Partido poste de hormigon de 7.5 mts, por accidente de tránsito. Comunidad 13 de Marzo</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte de un cable telefónico de 30 pares. Entre 27 de Noviembre y Aranguren</t>
-  </si>
-  <si>
-    <t>2020-01-18</t>
-  </si>
-  <si>
-    <t>Partido cable de 10 pares, por combinada cañera. Central Grito de Yara</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>Sustracción de microteléfono a una EP. Calle 18, entre 24 y 37. Consultorio Médico # 9</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de un cable telefónico de 100 pares. Carretera de Mar Verde a 300 mts de la Fábrica Marcel Bravo</t>
-  </si>
-  <si>
-    <t>2020-01-21</t>
-  </si>
-  <si>
-    <t>Partido dos cables telefónicos (30 y 50 pares), por accidente de tránsito. Carretera Central vía Habana Km 768</t>
-  </si>
-  <si>
-    <t>2020-01-22</t>
-  </si>
-  <si>
-    <t>Se quemaron 3 postes de madera y un cable de FO aéreo,  por incendio de la maleza. Carretera Central, loma de Blanquizal</t>
-  </si>
-  <si>
-    <t>Partido poste de madera de 9.00 mts, por estar fogoneado en la base. Finca Santa Clara-Carretera Central- Guanábana Matanzas</t>
-  </si>
-  <si>
-    <t>2020-01-23</t>
-  </si>
-  <si>
-    <t>Partido microteléfono de una EP. Calle 13 norte, entre San Lino y Beneficencia</t>
-  </si>
-  <si>
-    <t>Partido poste de madera de 9.00 mts, por accidente de tránsito. Calle Buena Vista, entre Alvarez y Capricho</t>
-  </si>
-  <si>
-    <t>Sustracción de dos focos traseros a un vehículo en el parqueo. CTLC Stgo Oeste. Distrito José Martí</t>
-  </si>
-  <si>
-    <t>2020-01-25</t>
-  </si>
-  <si>
-    <t>Partidos 2 postes de madera de 9.00 mts, por accidente de trnásito. Carretera al Pedagógico. Frigorífico Matanzas</t>
-  </si>
-  <si>
-    <t>Partido poste de madera de 7.5 mts, por accidente de tránsito. Calle Mariposa, cerca del Combinado Textil Celia Sánchez Manduley</t>
-  </si>
-  <si>
-    <t>Intento de robo en Minipunto Loteria. Calle 38 No . No definido e/t No definido y 101</t>
-  </si>
-  <si>
-    <t>2020-01-26</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción de unbajante telefónico. Calle José Antonio Hechavarria, entre Fiagueredo y Calle 46</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>Sustracción de taladros de un vehículo en el parqueo. Calle 52, entre 1E y 1G</t>
-  </si>
-  <si>
-    <t>Daño a gabinete flexible por accidente de tránsito. Calle Cisnero Betancourt. Localidad Los Pinos</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito no imputable a ETECSA con, lesionados leves. Vía Blanca y Serrano</t>
-  </si>
-  <si>
-    <t>DVLS</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito imputable a ETECSA, con lesionados leves. Entre calle Finlay y Varona. Los Pinos</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito imputable a ETECSA, con lesionados leves. Carretera a Guarda la vaca</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por  corte y sustracción  de tensor de acero galvanizado de 8 mm. Curva Finca del Miedo a Entronque J23</t>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-  </si>
-  <si>
-    <t>DTIJ</t>
-  </si>
-  <si>
-    <t>Afectado parabrisa de grúa, realizando un trabajo de instalación. Autopista Gerona - La Fé KM 6 1/2</t>
-  </si>
-  <si>
-    <t>Partido poste de hormigón de 9.00 mts, por accidente de tránsito. Poblado Santa Mónica</t>
-  </si>
-  <si>
-    <t>Partido poste de hormigón de 7.5 mts, por accidente de tránsito. Quibarí, entre Hatuey y Calle Nueva</t>
-  </si>
-  <si>
-    <t>Quemado cable de 200 pares por toque eléctrico. Calle Coco y San Benigno</t>
-  </si>
-  <si>
-    <t>Cable quemado por incendio de árbol. Calle San Mariano,  entre  Goicuria y Juan Delgado</t>
-  </si>
-  <si>
-    <t>Seg. Informática</t>
-  </si>
-  <si>
-    <t>2020-01-30</t>
-  </si>
-  <si>
-    <t>DOPS</t>
-  </si>
-  <si>
-    <t>Ataque informático en el Centro de Datos de Fontanar. Avenida Independencia, Esq 19</t>
-  </si>
-  <si>
-    <t>DTOE</t>
-  </si>
-  <si>
-    <t>Partido 2 postes de hormigon de 9.00 mts, por accidente de tránsito. Calle 4, entre 3era A y 3era</t>
-  </si>
-  <si>
-    <t>2020-01-31</t>
-  </si>
-  <si>
-    <t>Afectada FOT, por trabajos de una brigada de viales. Entre Guardalavaca y Cerro de Yagüajay</t>
-  </si>
-  <si>
-    <t>Fracturada la ventana delantera derecha de un vehículo, en su parqueo autorizado. Calle 20. No. 2914,  entre 21 y 23. Santa María del Rosario</t>
+    <t>Accidente de tránsito con lesionados,  no imputable. Entre Calle Monte y Rastro</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>Partido poste de hormigón de 9.00 mts y cable de 30 pares por accidente de tránsito. Ave 64 y Esquina 49</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
-        <v>738.0699999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>1218.0400000000002</v>
+        <v>7108.6</v>
       </c>
     </row>
     <row r="4">
@@ -1021,13 +925,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6">
-        <v>279.27</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>522.37</v>
+        <v>774.58</v>
       </c>
     </row>
     <row r="5">
@@ -1035,13 +939,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>1221.83</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>419.56</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="6">
@@ -1049,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>98.82</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -1077,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1116,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="6">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6">
-        <v>4789.62</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>5103.180000000001</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -1144,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6">
-        <v>4591.82</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>4891.880000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1172,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6">
-        <v>2956.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>3904.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1200,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -1245,8 +1149,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -1256,7 +1160,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -1303,224 +1207,224 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>77.05</v>
+        <v>0</v>
       </c>
       <c r="F2" s="7">
-        <v>70.88</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" s="6">
-        <v>98.82</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" s="6">
-        <v>513.2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>552.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="E5" s="6">
-        <v>379.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="6">
-        <v>46.34</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>63.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>70.63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="E8" s="6">
-        <v>34.06</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>117.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="6">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>389.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="E10" s="6">
-        <v>146.42</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>532.87</v>
+        <v>714.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6">
-        <v>83.6</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>199.16</v>
+        <v>631.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1531,56 +1435,56 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6">
-        <v>87.28</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>60.94</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" s="6">
-        <v>121.3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>245.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1591,19 +1495,19 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="6">
-        <v>109.52</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -1611,16 +1515,16 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1631,76 +1535,76 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6">
-        <v>532.98</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>356.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="E20" s="6">
-        <v>46.42</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>66.28</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>72.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -1711,39 +1615,39 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E23" s="6">
-        <v>40.2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>144.15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E24" s="6">
-        <v>107.9</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
@@ -1751,62 +1655,62 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="E25" s="6">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E26" s="6">
-        <v>59.91</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>189.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="6">
-        <v>393.19</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>78.59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -1814,579 +1718,159 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="6">
-        <v>101.1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>236.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>50.34</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" s="6">
-        <v>40.25</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>17.79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="6">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>152.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>0</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="6">
-        <v>1881</v>
+        <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>464.41</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="A35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="6">
-        <v>31.06</v>
-      </c>
-      <c r="F35" s="7">
-        <v>115.3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="C35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="6">
-        <v>107.2</v>
-      </c>
-      <c r="F36" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="6">
-        <v>214.3</v>
-      </c>
-      <c r="F38" s="7">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="6">
-        <v>232.02</v>
-      </c>
-      <c r="F39" s="7">
-        <v>122.77</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="6">
-        <v>21.5</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="6">
-        <v>702.47</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>224.91</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="6">
-        <v>98.2</v>
-      </c>
-      <c r="F49" s="7">
-        <v>126.3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="6">
-        <v>118.12</v>
-      </c>
-      <c r="F50" s="7">
-        <v>95.06</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="6">
-        <v>991.8</v>
-      </c>
-      <c r="F52" s="7">
-        <v>3240.74</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="6">
-        <v>197.8</v>
-      </c>
-      <c r="F54" s="7">
-        <v>211.3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="15">
-        <v>336</v>
-      </c>
-      <c r="F56" s="17">
-        <v>40</v>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/informesGenerados/ResumenMINCOM.xlsx
+++ b/src/informesGenerados/ResumenMINCOM.xlsx
@@ -623,10 +623,10 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="????? Light"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="?? Light"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -675,10 +675,10 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="?????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>

--- a/src/informesGenerados/ResumenMINCOM.xlsx
+++ b/src/informesGenerados/ResumenMINCOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Tipo</t>
   </si>
@@ -98,235 +98,265 @@
     <t>Pérdidas (MN)</t>
   </si>
   <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>Sustracción del transformador de la fuente de alimentación a una EP. Mercado Ideal -Cayo Ramona</t>
+  </si>
+  <si>
+    <t>Avería PExt</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>Partido poste de madera de 7.5 mts, por accidente de tránsito. Calles Luz y Caballero No. 62,  entre Frank País y Tirso Marín</t>
+  </si>
+  <si>
+    <t>2019-02-05</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>Partido cable multipar de 600 pares por accidente de tránsito. Calle Maceo</t>
+  </si>
+  <si>
+    <t>DTGR</t>
+  </si>
+  <si>
+    <t>Partida FO, por accidente de tránsito. Localidad La Norma</t>
+  </si>
+  <si>
+    <t>2019-02-06</t>
+  </si>
+  <si>
+    <t>Quemadas varias regletas y jumpers de un gabinete, por toque eléctrico. Circunvalación Norte</t>
+  </si>
+  <si>
+    <t>Robo</t>
+  </si>
+  <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>Sustracción de moto Jawa 350.  Biplanta D. Apto 4. Localidad Aguilera</t>
+  </si>
+  <si>
+    <t>Acc. Tránsito</t>
+  </si>
+  <si>
+    <t>2019-02-07</t>
+  </si>
+  <si>
+    <t>DCNI</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito sin lesionados, no imputable a ETECSA. Calle Perla y San Ignacio</t>
+  </si>
+  <si>
+    <t>2019-02-08</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
+    <t>Partido poste de madera de 7.5 mts, por accidente de tránsito. Central Héctor Molina</t>
+  </si>
+  <si>
+    <t>2019-02-09</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>Sustraídas 4 tarjetas magnéticas a una ejecutiva del CAT por otra trabajadora. Calle Aguilera No. 401,  entre Calvario y Carnicería</t>
+  </si>
+  <si>
     <t>Delito vs PExt</t>
   </si>
   <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>DTCM</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte de FO. Ave.Finlay. Nuevitas</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte de FO. Batey de Junco hacia La Carlota</t>
-  </si>
-  <si>
-    <t>Avería PExt</t>
-  </si>
-  <si>
-    <t>DTGT</t>
-  </si>
-  <si>
-    <t>Parido poste de hormigón de 7.5 mts, por accidente de tránsito. Carretera Principal Argeo Martínez</t>
-  </si>
-  <si>
-    <t>2021-01-08</t>
+    <t>2019-02-12</t>
+  </si>
+  <si>
+    <t>DTIJ</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico. Calle 41 No. 4614,  entre 46 y 52</t>
+  </si>
+  <si>
+    <t>Fracturados los microteléfonos a 2 EP. Calle 13. Puerto de Manatí</t>
+  </si>
+  <si>
+    <t>2019-02-14</t>
+  </si>
+  <si>
+    <t>Partido poste de hormigón de 9.00 mts,  por accidente de tránsito. Calle 26, entre Vicente Quesada y José A. Echevarría</t>
+  </si>
+  <si>
+    <t>2019-02-15</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>Fracturado microteléfono a una EP. Calle 63, entre 54 y 56</t>
+  </si>
+  <si>
+    <t>Partidos 3 postes de hormigón de 9.00 mts, por accidente del tránsito. Cuatro camino entrada de Calimete</t>
+  </si>
+  <si>
+    <t>2019-02-16</t>
+  </si>
+  <si>
+    <t>Sustracción de herramientas del interior de un vehículo. Hotel Guacanayabo</t>
+  </si>
+  <si>
+    <t>Incendio Ext.</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>Quemados cables multipares de 400 y 20 pares por toque eléctrico. Calle Esquerra, entre Independencia y Martí</t>
+  </si>
+  <si>
+    <t>2019-02-17</t>
+  </si>
+  <si>
+    <t>Partida la FO aérea, por caída de ábol. Cuatro Esquinas de Santa Lucía</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>Partido cable de 200 pares y ramal de 30 pares, por combinada cañera. Localidad Haití</t>
+  </si>
+  <si>
+    <t>Fracturado microteléfono a una EP. Reparto Siboney. Guamo</t>
+  </si>
+  <si>
+    <t>2019-02-19</t>
+  </si>
+  <si>
+    <t>DESP</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito sin lesionados, no imputable a ETECSA. Calle 27 entre 72 y 74</t>
+  </si>
+  <si>
+    <t>Sustracción de cápsula receptora con su tapa a una E.P. Avenida 60,  entre 73 y 75</t>
+  </si>
+  <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>Sustracción de microteléfono a una EP. Calle Juan Sierra, entre Antonio Maceo y Carlos M. de Céspedes.</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico. Calle Paraiso, entre Cisnero y Lora</t>
+  </si>
+  <si>
+    <t>2019-02-20</t>
+  </si>
+  <si>
+    <t>Partido microteléfono a una EP. Localidad Rural Playa Florida</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable tensor. Localidad Guaranal</t>
+  </si>
+  <si>
+    <t>DTES</t>
+  </si>
+  <si>
+    <t>Partida FO, por accidente de tránsito. Callejón El sapo</t>
+  </si>
+  <si>
+    <t>2019-02-21</t>
+  </si>
+  <si>
+    <t>Afectación a la planta exterior por corte y sustracción de cable tensor. Carretera San Germán a 1 Km del vertedero</t>
+  </si>
+  <si>
+    <t>2019-02-22</t>
+  </si>
+  <si>
+    <t>DTSR</t>
+  </si>
+  <si>
+    <t>Afectación a cable de 200 pares por trabajos de la Empresa Eléctrica. Calle Reforma entre  Calzada de Luyano</t>
+  </si>
+  <si>
+    <t>2019-02-23</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito sin lesionados, no imputable a ETECSA. Avenida de las Americas. Inmediaciones del Teatro Teatro Heredia. Avenida las Américas</t>
+  </si>
+  <si>
+    <t>2019-02-24</t>
+  </si>
+  <si>
+    <t>Sustracción del microteléfono a una EP. Calle Leal y Primera</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>DTAR</t>
+  </si>
+  <si>
+    <t>Partido poste de madera de 9.00 mts, por accidente de tránsito. Calle 61, entre 72 y 80</t>
   </si>
   <si>
     <t>DTCA</t>
   </si>
   <si>
-    <t>Partido Microteléfono a una EP. Tienda de víveres del Batey Eduviges Sanguily</t>
-  </si>
-  <si>
-    <t>Incendio Ext.</t>
-  </si>
-  <si>
-    <t>DTPR</t>
-  </si>
-  <si>
-    <t>Moto incendiada por corto circuito, durante su reparación. Avenida Borrego, entre Calle R Formell y Calle B</t>
+    <t>Intento de Robo Minipunto Máximo Gómez. Calle Máximo Gómez, entre 1 y 2</t>
+  </si>
+  <si>
+    <t>Partido poste de hormigón de 7.00 mts, por accidente de tránsito. Carretera Boca de Camarioca- La Conchita</t>
+  </si>
+  <si>
+    <t>Vandalizada una EP. Unidad Militar 2100. Carretera Monumental Km 11 1/2</t>
+  </si>
+  <si>
+    <t>2019-02-26</t>
+  </si>
+  <si>
+    <t>DCEC</t>
+  </si>
+  <si>
+    <t>Accidente de tránsito no imputable a ETECSA, sin lesionados. 5ta Avenida y 112.</t>
+  </si>
+  <si>
+    <t>2019-02-27</t>
   </si>
   <si>
     <t>DTOE</t>
   </si>
   <si>
-    <t>Sustracción del microteléfono a una EP. Calle 300</t>
-  </si>
-  <si>
-    <t>Acc. Tránsito</t>
-  </si>
-  <si>
-    <t>CTC</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito no imputable a ETECSA, sin lesionados. Calle Infanta y Salvador Allende</t>
-  </si>
-  <si>
-    <t>Robo</t>
-  </si>
-  <si>
-    <t>2021-01-11</t>
-  </si>
-  <si>
-    <t>Intento de robo Minipunto. Rpto. Fructuoso Rodríguez</t>
-  </si>
-  <si>
-    <t>Desprendida de la pared y abondonada en el suelo una EP. Rpto. Biplanta- Avenida Salva, entre calle 17 y calle 17 B</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>DTCF</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico. UBPC Turquino</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte de cable telefónico de 200 pares. Km 3/2. Punta Brava</t>
-  </si>
-  <si>
-    <t>DTSR</t>
-  </si>
-  <si>
-    <t>Partido cable de 50 pares, por accidente del tránsito. Calle Rafael de Cardenas, entre 3ra y 4ta</t>
-  </si>
-  <si>
-    <t>DTES</t>
-  </si>
-  <si>
-    <t>Sustracción de lámparas LED. Avenidad Rotaria,  entre Ciruela y Enlace</t>
-  </si>
-  <si>
-    <t>2021-01-13</t>
-  </si>
-  <si>
-    <t>Partido un poste de madera de 7.5 mts y dos cables telefónicos, por accidente de tránsito. Calle Augusto Arango</t>
-  </si>
-  <si>
-    <t>DVLS</t>
-  </si>
-  <si>
-    <t>Sustracción de un televisor. Avenida Los Pinos y 3ra. Sevillano</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>DECA</t>
-  </si>
-  <si>
-    <t>Accidente del tránsito imputable a ETECSA, sin lesionados. Entrada Tunel de la Habana</t>
-  </si>
-  <si>
-    <t>2021-01-15</t>
-  </si>
-  <si>
-    <t>Golpeado tubo soterrado, por labores de constructivas de la empresa ARCOS. Carretera Las Américas</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito sin lesionados, imputable a ETECSA. Barrio Comunidad Militar</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>DTGR</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte y sustracción de tensor. Km 2. Carretera Bayamo</t>
-  </si>
-  <si>
-    <t>Intento de robo en minipunto. Calle 30, entre Carrillo y Saez</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>Partido poste madera de 9.00 mts y cable de FO, por accidente de tránsito. Localidad Quemado de Güines</t>
-  </si>
-  <si>
-    <t>2021-01-21</t>
-  </si>
-  <si>
-    <t>Partido poste de madera de 9.00 mts y FO. Entronque del batey 6 de Agosto</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>Accidente de tránsito sin lesionados, imputable a ETECSA. Calle Fabrica. No. 54,  entre Aspuru y Línea del FC</t>
-  </si>
-  <si>
-    <t>2021-01-23</t>
-  </si>
-  <si>
-    <t>Partido cable multipar de 100 pares, por accidente de tránsito. Carretera a Esmeralda</t>
-  </si>
-  <si>
-    <t>DTLT</t>
-  </si>
-  <si>
-    <t>Interno con un machete causa daño multiples a una EP. Carretera Manatí.  Centro Penitenciario La Estrella</t>
-  </si>
-  <si>
-    <t>DTSS</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico. Calle José Martí, entre A y B</t>
-  </si>
-  <si>
-    <t>2021-01-25</t>
-  </si>
-  <si>
-    <t>DTMY</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte de cable coaxial. Carretera a Cayajabos, entre Repetidor 3 y Repetidor 4</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte y sustracción de tensor. Carretera a Sábalo</t>
-  </si>
-  <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
-    <t>Partidos 2 postes de madera de 7.00 mts, por accidente de tránsito. Calle Retiro, entre Méndez Capote y Acueducto</t>
-  </si>
-  <si>
-    <t>2021-01-28</t>
+    <t>Vandalizada una EP. Calle 51, entre 158 y 160</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>Partido poste de hormigón de 9.00 mts, por accidente de tránsito. calle Camilo Cienfuego. Esq. Restaurante Las Palmeras</t>
   </si>
   <si>
     <t>DTNO</t>
   </si>
   <si>
-    <t>Accidente de transito con lesionados, no imputable a ETECSA. Entre Calle Zapata y Paseo</t>
-  </si>
-  <si>
-    <t>2021-01-29</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte y sustracción de cable telefónico. Camino a la localidad La Pimienta</t>
-  </si>
-  <si>
-    <t>Afectación a la planta exterior por corte y sustracción de bajante telefónico. Carretera de Baconao KM 1 1/2</t>
+    <t>Accidente de transito sin lesionados, imputable a ETECSA. Calzada de 10 de Octubre  y Santa Catalina</t>
   </si>
   <si>
     <t>DVLH</t>
   </si>
   <si>
-    <t>Accidente de tránsito con lesionados,  no imputable. Entre Calle Monte y Rastro</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>Partido poste de hormigón de 9.00 mts y cable de 30 pares por accidente de tránsito. Ave 64 y Esquina 49</t>
+    <t>Sustracción de Laptop del interior de un vehículo. Calle Galiano y Concordia</t>
   </si>
 </sst>
 </file>
@@ -623,10 +653,10 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="????? Light"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="?? Light"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -675,10 +705,10 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -911,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
+        <v>7759.54</v>
       </c>
       <c r="D3" s="7">
-        <v>7108.6</v>
+        <v>412.74</v>
       </c>
     </row>
     <row r="4">
@@ -925,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>580.14</v>
       </c>
       <c r="D4" s="7">
-        <v>774.58</v>
+        <v>211.18</v>
       </c>
     </row>
     <row r="5">
@@ -939,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>2004.31</v>
       </c>
       <c r="D5" s="7">
-        <v>2340</v>
+        <v>1892.52</v>
       </c>
     </row>
     <row r="6">
@@ -1020,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>1365.25</v>
       </c>
       <c r="D11" s="7">
-        <v>153</v>
+        <v>2797.2900000000004</v>
       </c>
     </row>
     <row r="12">
@@ -1079,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>464.82</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>49.14</v>
       </c>
     </row>
     <row r="16">
@@ -1149,8 +1179,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -1160,7 +1190,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -1195,136 +1225,136 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F2" s="7">
-        <v>10.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>133.09</v>
       </c>
       <c r="F3" s="7">
-        <v>1868</v>
+        <v>300.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>644.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>357.46</v>
       </c>
       <c r="F5" s="7">
-        <v>31.87</v>
+        <v>538.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>291.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1335,159 +1365,159 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>134.61</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>168.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>714.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="F11" s="7">
-        <v>1250</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>64.43</v>
       </c>
       <c r="F12" s="7">
-        <v>631.2</v>
+        <v>8.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>161.88</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>106.5</v>
       </c>
       <c r="F14" s="7">
-        <v>2340</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>344.97</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>273.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>892.89</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -1495,36 +1525,36 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>464.82</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>49.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1535,56 +1565,56 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>19.97</v>
       </c>
       <c r="F20" s="7">
-        <v>1157</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -1595,33 +1625,33 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>106.5</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>79</v>
@@ -1630,44 +1660,44 @@
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>46</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="F24" s="7">
-        <v>0</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
@@ -1675,201 +1705,301 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
+        <v>7320.96</v>
       </c>
       <c r="F26" s="7">
-        <v>0</v>
+        <v>351.67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
+        <v>387.58</v>
       </c>
       <c r="F28" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>1562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>47.26</v>
       </c>
       <c r="F31" s="7">
-        <v>0</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>125.35</v>
       </c>
       <c r="F32" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>211.42</v>
       </c>
       <c r="F33" s="7">
-        <v>66.5</v>
+        <v>1892.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="E35" s="6">
+        <v>115.31</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="C36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
+      <c r="D36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="6">
+        <v>32.92</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="6">
+        <v>107.89</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="15">
+        <v>900</v>
+      </c>
+      <c r="F40" s="17">
         <v>0</v>
       </c>
     </row>
